--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24211"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="391" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B31B35D-9E3A-4ABB-9A21-ED484FF6F120}"/>
+  <xr:revisionPtr revIDLastSave="455" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F9A9AB0-2F09-415F-B8D5-40EB12259762}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="改訂履歴" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="141">
   <si>
     <t>改定履歴</t>
   </si>
@@ -55,6 +55,33 @@
   </si>
   <si>
     <t>alcoder</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>テーブルの作成</t>
+  </si>
+  <si>
+    <t>fujiwara shohei</t>
+  </si>
+  <si>
+    <t>chat_members</t>
+  </si>
+  <si>
+    <t>chatrooms</t>
+  </si>
+  <si>
+    <t>posts</t>
+  </si>
+  <si>
+    <t>tasks</t>
+  </si>
+  <si>
+    <t>datetime型をtimestamp型に訂正。timestamp型はデフォルト値を"current_timestamp"とし、not null制約を設定</t>
+  </si>
+  <si>
+    <t>datetime型をtimestamp型に訂正（"期限"を除く）。timestamp型はデフォルト値を"current_timestamp"とし、not null制約を設定</t>
   </si>
   <si>
     <t>table_names</t>
@@ -583,9 +610,6 @@
     <phoneticPr fontId="6"/>
   </si>
   <si>
-    <t>users</t>
-  </si>
-  <si>
     <t>ユーザーの情報を保持するテーブル</t>
   </si>
   <si>
@@ -658,16 +682,16 @@
     <t>created_at</t>
   </si>
   <si>
-    <t>datetime</t>
+    <t>timestamp</t>
+  </si>
+  <si>
+    <t>current_timestamp</t>
   </si>
   <si>
     <t>更新日時</t>
   </si>
   <si>
     <t>updated_at</t>
-  </si>
-  <si>
-    <t>timestamp</t>
   </si>
   <si>
     <t>削除フラグ</t>
@@ -680,9 +704,6 @@
   </si>
   <si>
     <t>1:削除済み</t>
-  </si>
-  <si>
-    <t>chat_members</t>
   </si>
   <si>
     <t>各ユーザーのチャット参加情報を保持するテーブル</t>
@@ -718,7 +739,7 @@
     <t>PK,FK</t>
   </si>
   <si>
-    <t>chatrooms</t>
+    <t>datetime</t>
   </si>
   <si>
     <t>チャットの情報を保持するテーブル</t>
@@ -766,9 +787,6 @@
     <t>1:ダイレクトチャット</t>
   </si>
   <si>
-    <t>posts</t>
-  </si>
-  <si>
     <t>投稿情報を保持するテーブル</t>
   </si>
   <si>
@@ -803,9 +821,6 @@
   </si>
   <si>
     <t>file_name</t>
-  </si>
-  <si>
-    <t>tasks</t>
   </si>
   <si>
     <t>タスクの情報を保持するテーブル</t>
@@ -987,7 +1002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1037,18 +1052,20 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1269,7 +1286,9 @@
   </sheetPr>
   <dimension ref="A1:Z1030"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1281,9 +1300,9 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
@@ -1348,7 +1367,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1378,10 +1397,18 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="A4" s="32">
+        <v>44366</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1406,10 +1433,18 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="8"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="A5" s="32">
+        <v>44366</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1434,10 +1469,18 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="8"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="A6" s="32">
+        <v>44366</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1462,10 +1505,18 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="8"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="A7" s="32">
+        <v>44366</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1490,10 +1541,18 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="8"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="A8" s="32">
+        <v>44366</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1518,10 +1577,18 @@
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="1:26" ht="12.75">
-      <c r="A9" s="8"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="A9" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -1546,10 +1613,18 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="1:26" ht="12.75">
-      <c r="A10" s="8"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="A10" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
@@ -1574,10 +1649,18 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="12.75">
-      <c r="A11" s="8"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
+      <c r="A11" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
@@ -1602,10 +1685,18 @@
       <c r="Z11" s="3"/>
     </row>
     <row r="12" spans="1:26" ht="12.75">
-      <c r="A12" s="8"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
+      <c r="A12" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
@@ -1630,10 +1721,18 @@
       <c r="Z12" s="3"/>
     </row>
     <row r="13" spans="1:26" ht="12.75">
-      <c r="A13" s="8"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
+      <c r="A13" s="8">
+        <v>44368</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -30148,7 +30247,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="C5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="D8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
@@ -30165,168 +30264,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="B1" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="23"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="23"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30336,23 +30435,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="24"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30361,123 +30460,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
+        <v>45</v>
+      </c>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30499,7 +30598,7 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="E9" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -30517,82 +30616,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="22"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="22"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30608,7 +30707,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="22"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30624,7 +30723,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="22"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30640,7 +30739,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="22"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30656,7 +30755,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="22"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30672,7 +30771,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="22"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30688,7 +30787,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="22"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30704,7 +30803,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="22"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30720,7 +30819,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="22"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30736,7 +30835,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30752,7 +30851,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30768,7 +30867,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30834,7 +30933,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30854,179 +30953,206 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -31038,18 +31164,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -31059,22 +31186,23 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -31084,66 +31212,75 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
+      <c r="G12" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H12" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F13" s="17"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="16"/>
+      <c r="G13" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>61</v>
+      </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -31152,15 +31289,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31176,6 +31314,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31239,9 +31378,9 @@
   </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31261,140 +31400,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31410,6 +31577,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31425,6 +31593,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31440,6 +31609,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31455,6 +31625,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31470,6 +31641,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31485,6 +31657,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31500,6 +31673,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31515,6 +31689,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31593,145 +31768,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="22" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" s="22" t="s">
+      <c r="A1" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="I2" s="22"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="22"/>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22" t="s">
-        <v>84</v>
-      </c>
-      <c r="H3" s="22" t="s">
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="H3" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="24"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="22"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
+      <c r="A6" s="24"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="22"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="24"/>
+      <c r="B7" s="24"/>
+      <c r="C7" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="22"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="22"/>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="A9" s="24"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31747,7 +31922,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31767,129 +31942,154 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31901,68 +32101,73 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="20"/>
+      <c r="G9" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H9" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
@@ -31970,45 +32175,51 @@
       <c r="G10" s="20"/>
       <c r="H10" s="17"/>
       <c r="I10" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -32017,27 +32228,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -32046,27 +32258,28 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="29" t="s">
-        <v>108</v>
+      <c r="K13" s="26" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -32075,15 +32288,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32099,6 +32313,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32164,7 +32379,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32184,179 +32399,208 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="16" t="s">
-        <v>53</v>
+      <c r="G8" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>61</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F9" s="16">
         <v>11</v>
@@ -32364,72 +32608,79 @@
       <c r="G9" s="20"/>
       <c r="H9" s="17"/>
       <c r="I9" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="17"/>
+      <c r="G10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F12" s="16">
         <v>100</v>
@@ -32441,18 +32692,19 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -32461,15 +32713,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32485,6 +32738,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32500,6 +32754,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32565,7 +32820,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32585,156 +32840,182 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
+      <c r="B1" s="31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+        <v>17</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+        <v>19</v>
+      </c>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
+      <c r="A4" s="24"/>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
+      <c r="A5" s="24"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
+      <c r="A6" s="24"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
+      <c r="A7" s="24"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
+      <c r="A8" s="24"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
@@ -32744,68 +33025,73 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
+      <c r="A9" s="24"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F9" s="16">
         <v>11</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
+      <c r="A10" s="24"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="20"/>
+      <c r="G10" s="15" t="s">
+        <v>82</v>
+      </c>
       <c r="H10" s="17" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
+      <c r="A11" s="24"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
@@ -32813,72 +33099,79 @@
       <c r="G11" s="20"/>
       <c r="H11" s="16"/>
       <c r="I11" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
+      <c r="A12" s="24"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F12" s="16"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+      <c r="G12" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>61</v>
+      </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
+      <c r="A13" s="24"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
+      <c r="A14" s="24"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -32887,27 +33180,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
+      <c r="A15" s="24"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -32916,15 +33210,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>

--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24216"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="455" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F9A9AB0-2F09-415F-B8D5-40EB12259762}"/>
+  <xr:revisionPtr revIDLastSave="493" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35954AEA-70C5-4764-85CE-640104BB3623}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="146">
   <si>
     <t>改定履歴</t>
   </si>
@@ -82,6 +82,15 @@
   </si>
   <si>
     <t>datetime型をtimestamp型に訂正（"期限"を除く）。timestamp型はデフォルト値を"current_timestamp"とし、not null制約を設定</t>
+  </si>
+  <si>
+    <t>物理名中の「...by_id」を「...by_user_id」に修正</t>
+  </si>
+  <si>
+    <t>「電話番号（勤務先）」と「電話番号（携帯電話）」の型をcharからvarcharに修正</t>
+  </si>
+  <si>
+    <t>テーブルにPKを設定</t>
   </si>
   <si>
     <t>table_names</t>
@@ -664,9 +673,6 @@
     <t>office_phone</t>
   </si>
   <si>
-    <t>char</t>
-  </si>
-  <si>
     <t>ハイフン(-)を含む</t>
   </si>
   <si>
@@ -712,7 +718,7 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>FK</t>
+    <t>PK,FK</t>
   </si>
   <si>
     <t>チャットid</t>
@@ -733,10 +739,13 @@
     <t>物理名(カラム名)</t>
   </si>
   <si>
+    <t>FK</t>
+  </si>
+  <si>
     <t>unique</t>
   </si>
   <si>
-    <t>PK,FK</t>
+    <t>char</t>
   </si>
   <si>
     <t>datetime</t>
@@ -748,7 +757,7 @@
     <t>チャット名</t>
   </si>
   <si>
-    <t>dhat_name</t>
+    <t>chat_name</t>
   </si>
   <si>
     <t>チャット概要</t>
@@ -760,13 +769,13 @@
     <t>作成者id</t>
   </si>
   <si>
-    <t>created_by_id</t>
+    <t>created_by_user_id</t>
   </si>
   <si>
     <t>更新者id</t>
   </si>
   <si>
-    <t>updated_by_id</t>
+    <t>updated_by_user_id</t>
   </si>
   <si>
     <t>ファイル送信禁止フラグ</t>
@@ -796,7 +805,7 @@
     <t>投稿者id</t>
   </si>
   <si>
-    <t>posted_by_id</t>
+    <t>posted_by_user_id</t>
   </si>
   <si>
     <t>投稿内容</t>
@@ -845,6 +854,12 @@
   </si>
   <si>
     <t>due_at</t>
+  </si>
+  <si>
+    <t>created_by_id</t>
+  </si>
+  <si>
+    <t>updated_by_id</t>
   </si>
   <si>
     <t>登録先チャットid</t>
@@ -1053,19 +1068,19 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1287,7 +1302,7 @@
   <dimension ref="A1:Z1030"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1367,7 +1382,7 @@
         <v>43955</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="7" t="s">
@@ -1397,7 +1412,7 @@
       <c r="Z3" s="3"/>
     </row>
     <row r="4" spans="1:26" ht="12.75">
-      <c r="A4" s="32">
+      <c r="A4" s="26">
         <v>44366</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1433,7 +1448,7 @@
       <c r="Z4" s="3"/>
     </row>
     <row r="5" spans="1:26" ht="12.75">
-      <c r="A5" s="32">
+      <c r="A5" s="26">
         <v>44366</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -1469,7 +1484,7 @@
       <c r="Z5" s="3"/>
     </row>
     <row r="6" spans="1:26" ht="12.75">
-      <c r="A6" s="32">
+      <c r="A6" s="26">
         <v>44366</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1505,7 +1520,7 @@
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="1:26" ht="12.75">
-      <c r="A7" s="32">
+      <c r="A7" s="26">
         <v>44366</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1541,7 +1556,7 @@
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="1:26" ht="12.75">
-      <c r="A8" s="32">
+      <c r="A8" s="26">
         <v>44366</v>
       </c>
       <c r="B8" s="7" t="s">
@@ -1757,10 +1772,18 @@
       <c r="Z13" s="3"/>
     </row>
     <row r="14" spans="1:26" ht="12.75">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
+      <c r="A14" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -1785,10 +1808,18 @@
       <c r="Z14" s="3"/>
     </row>
     <row r="15" spans="1:26" ht="12.75">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
+      <c r="A15" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
@@ -1813,10 +1844,18 @@
       <c r="Z15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="12.75">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="7"/>
+      <c r="A16" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
@@ -1841,10 +1880,18 @@
       <c r="Z16" s="3"/>
     </row>
     <row r="17" spans="1:26" ht="12.75">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
+      <c r="A17" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
@@ -1869,10 +1916,18 @@
       <c r="Z17" s="3"/>
     </row>
     <row r="18" spans="1:26" ht="12.75">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
+      <c r="A18" s="8">
+        <v>44369</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
@@ -30248,7 +30303,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="D8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30264,168 +30319,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
-      <c r="L1" s="24"/>
-      <c r="M1" s="24"/>
+      <c r="B1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="27"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B12" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K5" s="20"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="28"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -30435,23 +30490,23 @@
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="24"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F8" s="16">
         <v>1</v>
@@ -30460,123 +30515,123 @@
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
+        <v>48</v>
+      </c>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="20"/>
       <c r="H9" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
       </c>
       <c r="G10" s="20"/>
       <c r="H10" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="20"/>
       <c r="H11" s="19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F12" s="16">
         <v>11</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -30616,82 +30671,82 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
@@ -30707,7 +30762,7 @@
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -30723,7 +30778,7 @@
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -30739,7 +30794,7 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -30755,7 +30810,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -30771,7 +30826,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -30787,7 +30842,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -30803,7 +30858,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -30819,7 +30874,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -30835,7 +30890,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -30851,7 +30906,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -30867,7 +30922,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -30933,7 +30988,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30953,206 +31008,206 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F9" s="16">
         <v>1000</v>
@@ -31164,19 +31219,19 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -31186,23 +31241,23 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F11" s="16">
         <v>13</v>
@@ -31212,75 +31267,75 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>83</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>81</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -31289,16 +31344,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31314,7 +31369,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31380,7 +31435,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31400,168 +31455,168 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="I5" s="13" t="s">
-        <v>91</v>
+        <v>64</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F7" s="16"/>
       <c r="G7" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H7" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -31577,7 +31632,7 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -31593,7 +31648,7 @@
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -31609,7 +31664,7 @@
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -31625,7 +31680,7 @@
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -31641,7 +31696,7 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -31657,7 +31712,7 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -31673,7 +31728,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -31689,7 +31744,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -31750,8 +31805,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{515E7529-41FE-4E02-8117-539CCADB97E9}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -31768,145 +31823,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="24" t="s">
+      <c r="A1" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="D1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="E1" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="24" t="s">
-        <v>19</v>
+      <c r="F1" s="27" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="I2" s="24"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="27"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="24"/>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="I3" s="24"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="H3" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="24"/>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
+      <c r="A5" s="27"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="24"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="27"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="24"/>
-      <c r="B7" s="24"/>
-      <c r="C7" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="24"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="24"/>
-      <c r="B9" s="24"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="24"/>
+      <c r="A9" s="27"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31922,7 +31977,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31942,154 +31997,154 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -32101,73 +32156,73 @@
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F8" s="16">
         <v>11</v>
       </c>
       <c r="G8" s="20"/>
       <c r="H8" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="16"/>
       <c r="G9" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20"/>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F10" s="16">
         <v>11</v>
@@ -32175,51 +32230,51 @@
       <c r="G10" s="20"/>
       <c r="H10" s="17"/>
       <c r="I10" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" s="16">
         <v>1</v>
@@ -32228,28 +32283,28 @@
         <v>0</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -32258,28 +32313,28 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
-      <c r="K13" s="26" t="s">
-        <v>115</v>
+      <c r="K13" s="24" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -32288,16 +32343,16 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32313,7 +32368,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32379,7 +32434,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32399,208 +32454,208 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F6" s="16">
         <v>11</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20"/>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I8" s="20"/>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16">
         <v>11</v>
@@ -32608,79 +32663,79 @@
       <c r="G9" s="20"/>
       <c r="H9" s="17"/>
       <c r="I9" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
       </c>
       <c r="G11" s="20"/>
       <c r="H11" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F12" s="16">
         <v>100</v>
@@ -32692,19 +32747,19 @@
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F13" s="17">
         <v>1</v>
@@ -32713,16 +32768,16 @@
         <v>0</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -32738,7 +32793,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -32754,7 +32809,7 @@
       <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -32820,7 +32875,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32840,182 +32895,182 @@
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
     </row>
     <row r="2" spans="1:11" ht="12.75">
       <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
+        <v>20</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
     </row>
     <row r="3" spans="1:11" ht="12.75">
       <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
+        <v>22</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
     </row>
     <row r="4" spans="1:11" ht="12.75">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>19</v>
-      </c>
     </row>
     <row r="5" spans="1:11" ht="15.75" customHeight="1">
-      <c r="A5" s="24"/>
+      <c r="A5" s="27"/>
       <c r="B5" s="5">
         <f t="shared" ref="B5:B16" si="0">ROW()-4</f>
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F5" s="16">
         <v>11</v>
       </c>
       <c r="G5" s="20"/>
       <c r="H5" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J5" s="13" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K5" s="20"/>
     </row>
     <row r="6" spans="1:11" ht="12.75">
-      <c r="A6" s="24"/>
+      <c r="A6" s="27"/>
       <c r="B6" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F6" s="16">
         <v>1000</v>
       </c>
       <c r="G6" s="20"/>
       <c r="H6" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I6" s="20"/>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="12.75">
-      <c r="A7" s="24"/>
+      <c r="A7" s="27"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F7" s="16">
         <v>11</v>
       </c>
       <c r="G7" s="20"/>
       <c r="H7" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I7" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J7" s="20"/>
       <c r="K7" s="20"/>
     </row>
     <row r="8" spans="1:11" ht="12.75">
-      <c r="A8" s="24"/>
+      <c r="A8" s="27"/>
       <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F8" s="16"/>
       <c r="G8" s="20"/>
@@ -33025,73 +33080,73 @@
       <c r="K8" s="20"/>
     </row>
     <row r="9" spans="1:11" ht="12.75">
-      <c r="A9" s="24"/>
+      <c r="A9" s="27"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>107</v>
+        <v>139</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9" s="16">
         <v>11</v>
       </c>
       <c r="G9" s="20"/>
       <c r="H9" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I9" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" ht="12.75">
-      <c r="A10" s="24"/>
+      <c r="A10" s="27"/>
       <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F10" s="16"/>
       <c r="G10" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:11" ht="12.75">
-      <c r="A11" s="24"/>
+      <c r="A11" s="27"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F11" s="16">
         <v>11</v>
@@ -33099,79 +33154,79 @@
       <c r="G11" s="20"/>
       <c r="H11" s="16"/>
       <c r="I11" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="12.75">
-      <c r="A12" s="24"/>
+      <c r="A12" s="27"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>81</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="15" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:11" ht="12.75">
-      <c r="A13" s="24"/>
+      <c r="A13" s="27"/>
       <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F13" s="17">
         <v>11</v>
       </c>
       <c r="G13" s="20"/>
       <c r="H13" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="J13" s="20"/>
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="12.75">
-      <c r="A14" s="24"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F14" s="16">
         <v>1</v>
@@ -33180,28 +33235,28 @@
         <v>0</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I14" s="20"/>
       <c r="J14" s="20"/>
       <c r="K14" s="20" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75">
-      <c r="A15" s="24"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F15" s="17">
         <v>1</v>
@@ -33210,16 +33265,16 @@
         <v>0</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="20"/>
       <c r="K15" s="20" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75">
-      <c r="A16" s="24"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
